--- a/biology/Botanique/Hebestigma_cubense/Hebestigma_cubense.xlsx
+++ b/biology/Botanique/Hebestigma_cubense/Hebestigma_cubense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hebestigma cubense est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire de Cuba. C'est l'unique espèce acceptée du genre Hebestigma (genre monotypique).
 </t>
@@ -511,16 +523,18 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gliricidia cubensis (Kunth) C.Wright[2]
-Gliricidia latifolia Griseb.[2]
-Gliricidia platycarpa Griseb.[2] [3]
-Gliricidia sagraei Urb.[2]
-Hebestigma cubense var. latifolium (Griseb.) Urb.[2]
-Hebestigma cubense (Kunth) Urb.[3]
-Lonchocarpus latifolius Sagra[2]
-Robinia cubensis Kunth[2] [3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gliricidia cubensis (Kunth) C.Wright
+Gliricidia latifolia Griseb.
+Gliricidia platycarpa Griseb. 
+Gliricidia sagraei Urb.
+Hebestigma cubense var. latifolium (Griseb.) Urb.
+Hebestigma cubense (Kunth) Urb.
+Lonchocarpus latifolius Sagra
+Robinia cubensis Kunth </t>
         </is>
       </c>
     </row>
@@ -548,9 +562,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (15 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (15 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Hebestigma cubense var. cubense
 Hebestigma cubense var. latifolium (Griseb.) Urb.</t>
         </is>
